--- a/media/salary_files/凃在福_P110030_激勵性獎金.xlsx
+++ b/media/salary_files/凃在福_P110030_激勵性獎金.xlsx
@@ -1050,120 +1050,78 @@
     <row r="6" ht="16.2" customHeight="1" s="40">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>基本薪資</t>
+          <t>免稅加班</t>
         </is>
       </c>
       <c r="B6" s="46" t="n">
-        <v>27000</v>
-      </c>
-      <c r="C6" s="23" t="inlineStr">
-        <is>
-          <t>勞保</t>
-        </is>
-      </c>
-      <c r="D6" s="47" t="n">
-        <v>662</v>
-      </c>
+        <v>2963</v>
+      </c>
+      <c r="C6" s="23" t="inlineStr"/>
+      <c r="D6" s="47" t="inlineStr"/>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>免稅加班</t>
+          <t>工作津貼</t>
         </is>
       </c>
       <c r="B7" s="50" t="n">
-        <v>2963</v>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>健保</t>
-        </is>
-      </c>
-      <c r="D7" s="50" t="n">
-        <v>428</v>
-      </c>
+        <v>3020</v>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="50" t="n"/>
       <c r="E7" s="51" t="n"/>
       <c r="F7" s="52" t="n"/>
     </row>
     <row r="8" ht="16.2" customHeight="1" s="40">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>工作津貼</t>
+          <t>出差津貼</t>
         </is>
       </c>
       <c r="B8" s="50" t="n">
-        <v>3020</v>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>勞退</t>
-        </is>
-      </c>
-      <c r="D8" s="50" t="n">
-        <v>1620</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="50" t="n"/>
       <c r="E8" s="51" t="n"/>
       <c r="F8" s="52" t="n"/>
     </row>
     <row r="9" ht="16.2" customHeight="1" s="40">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>出差津貼</t>
+          <t>伙食津貼</t>
         </is>
       </c>
       <c r="B9" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>勞退自提(2%)</t>
-        </is>
-      </c>
-      <c r="D9" s="50" t="n">
-        <v>540</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="50" t="n"/>
       <c r="E9" s="51" t="n"/>
       <c r="F9" s="52" t="n"/>
     </row>
     <row r="10" ht="16.2" customHeight="1" s="40">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>伙食津貼</t>
+          <t>車程津貼</t>
         </is>
       </c>
       <c r="B10" s="50" t="n">
-        <v>600</v>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>事假</t>
-        </is>
-      </c>
-      <c r="D10" s="50" t="n">
-        <v>3164</v>
-      </c>
+        <v>4770</v>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="50" t="n"/>
       <c r="E10" s="51" t="n"/>
       <c r="F10" s="52" t="n"/>
     </row>
     <row r="11" ht="16.2" customHeight="1" s="40">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>車程津貼</t>
-        </is>
-      </c>
-      <c r="B11" s="50" t="n">
-        <v>2348</v>
-      </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>病假</t>
-        </is>
-      </c>
-      <c r="D11" s="50" t="n">
-        <v>1356</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
+      <c r="B11" s="50" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="50" t="n"/>
       <c r="E11" s="51" t="n"/>
       <c r="F11" s="52" t="n"/>
     </row>
@@ -1262,7 +1220,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>36181</v>
+        <v>11603</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1270,7 +1228,7 @@
         </is>
       </c>
       <c r="D23" s="57" t="n">
-        <v>7770</v>
+        <v>0</v>
       </c>
       <c r="E23" s="20" t="inlineStr">
         <is>
@@ -1278,7 +1236,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>28411</v>
+        <v>11603</v>
       </c>
     </row>
   </sheetData>

--- a/media/salary_files/凃在福_P110030_激勵性獎金.xlsx
+++ b/media/salary_files/凃在福_P110030_激勵性獎金.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
